--- a/data/trans_orig/Q20C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>3.185185930370968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.919566121394197</v>
+        <v>5.919566121394196</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.340392434779813</v>
@@ -693,7 +693,7 @@
         <v>3.8674781772263</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5.680558475035631</v>
+        <v>5.68055847503563</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.093327796359199</v>
+        <v>5.444087678241627</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>1.659812247543634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.135276351139419</v>
+        <v>2.210131544612789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.462229151518124</v>
+        <v>3.365117550157947</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.460036758322255</v>
+        <v>3.34432475741678</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8719602922864437</v>
+        <v>0.9891584602129723</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.660190126041471</v>
+        <v>3.640256475877979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.92885376158565</v>
+        <v>3.834165758683206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.822638568643678</v>
+        <v>2.720365048783183</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.615253707535424</v>
+        <v>3.660570785189241</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.17503683644486</v>
+        <v>18.31157899388002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.81764005868166</v>
+        <v>16.81280892497798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.293354345743247</v>
+        <v>4.340539031388525</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.39821049328769</v>
+        <v>10.42992078860412</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.95322700120527</v>
+        <v>15.03438644169521</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.17250957042296</v>
+        <v>9.141308613409549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.14772144577212</v>
+        <v>13.7169802488428</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13.55531965486833</v>
+        <v>13.33121191913614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5.314843696794751</v>
+        <v>5.223178348462809</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>9.723028242540932</v>
+        <v>9.690337367811365</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>11.74483361371399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.983657438590687</v>
+        <v>3.983657438590686</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>2.219899095581738</v>
@@ -849,7 +849,7 @@
         <v>2.005719026196823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.847107729266038</v>
+        <v>1.872547383764652</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1.484753404912814</v>
@@ -858,22 +858,22 @@
         <v>3.04356900037808</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.396978646262928</v>
+        <v>2.102917418381221</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.28758809526768</v>
+        <v>1.218026096789867</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.518561837727533</v>
+        <v>1.538116535243544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.018737492377687</v>
+        <v>3.276523314245314</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.869006181589689</v>
+        <v>4.071678235702644</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.936851915796997</v>
+        <v>2.055772248786541</v>
       </c>
     </row>
     <row r="9">
@@ -890,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22.65522283684255</v>
+        <v>21.21435783380395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.442504018994186</v>
+        <v>5.442058557137304</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>3.503136199439568</v>
@@ -902,22 +902,22 @@
         <v>8</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.693518795235819</v>
+        <v>7.700191850444847</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>4.796934069147076</v>
+        <v>4.637512130622643</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.510726718525077</v>
+        <v>3.351815658278607</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.183706692742589</v>
+        <v>7.338036625718634</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.54928541688326</v>
+        <v>13.01353044662502</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>4.496890403062283</v>
+        <v>4.826603016970431</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.58743451113653</v>
+        <v>2.585337768786332</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.502592947560613</v>
+        <v>3.53871503112746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.92273945850916</v>
+        <v>4.853688049417106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.480453782918979</v>
+        <v>5.538969351401429</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1.748365577253355</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.46251826848491</v>
+        <v>1.64957523822421</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.234559321894593</v>
+        <v>1.029237079937044</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.490407681766533</v>
+        <v>3.488697469163561</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.950342845698545</v>
+        <v>2.958662191590461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.627097445888772</v>
+        <v>3.47841042457534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4.471271320560439</v>
+        <v>4.462787806808472</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.26972482300388</v>
+        <v>6.28317653717564</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.37647387440918</v>
+        <v>15.94446393310781</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.68002862434553</v>
+        <v>10.14502678350091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.01111516318769</v>
+        <v>19.2380856953426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.67159111551523</v>
+        <v>18.44512218682045</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>6</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.657346995085401</v>
+        <v>8.979820872147659</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.735717492562157</v>
+        <v>9.29382531708174</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>19.86075654444107</v>
+        <v>19.89428427546247</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.30083515423491</v>
+        <v>12.22973946071116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8.789869312207831</v>
+        <v>8.49016411440557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16.95166999309291</v>
+        <v>14.09658704579182</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.60360382849815</v>
+        <v>16.86804470809875</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>10.30945622619534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.649141074261256</v>
+        <v>3.649141074261255</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>6.090879269261027</v>
@@ -1101,7 +1101,7 @@
         <v>9.668401610283944</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>5.674239094777551</v>
+        <v>5.674239094777553</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.232059465364927</v>
+        <v>2.278520468073216</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.790037873275675</v>
+        <v>2.681853618953933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.087319108836475</v>
+        <v>4.978006754119781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.174128584966741</v>
+        <v>2.165038485927013</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.610292038162882</v>
+        <v>3.431555879127343</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.339135159237625</v>
+        <v>3.458982379320441</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>4.8425308063542</v>
+        <v>5.098110420093807</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.925629665178164</v>
+        <v>3.864819737670497</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.315208713431548</v>
+        <v>3.40137090134769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.418334988378825</v>
+        <v>3.35265418263334</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.103494634026629</v>
+        <v>5.995224488699468</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.391633566466002</v>
+        <v>3.342773253222555</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.245317639184633</v>
+        <v>6.415241785709354</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.867873958313254</v>
+        <v>8.998333224886496</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27.2162054760758</v>
+        <v>24.8213371032613</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.267042720170063</v>
+        <v>6.186262063651605</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>11.88507179977477</v>
+        <v>10.8999172822104</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.93617951144121</v>
+        <v>10.55260299277254</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>13.99799259943282</v>
+        <v>14.88255995903731</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>20.21624127730654</v>
+        <v>20.61480380152427</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>8.091331532452314</v>
+        <v>7.874770667456925</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.98812440113141</v>
+        <v>8.289244813452108</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19.2612046374678</v>
+        <v>19.13253714229107</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>12.46906920884106</v>
+        <v>11.73552120979241</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>3.534614809236175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.585427389206341</v>
+        <v>9.585427389206339</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>3.66960810118917</v>
@@ -1251,37 +1251,37 @@
         <v>5.405114741913634</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.070181575327433</v>
+        <v>2.908994470544322</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.298354492607507</v>
+        <v>2.26003898516197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.083379091515313</v>
+        <v>5.123465472160419</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.771885961804507</v>
+        <v>1.770530420869794</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.584705015477274</v>
+        <v>3.604288847726561</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.951017907412234</v>
+        <v>5.020155645106176</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.202647180146224</v>
+        <v>3.971673042124383</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.832066739867483</v>
+        <v>3.810874094388016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.962735016448344</v>
+        <v>3.925555627767912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4.411982336792797</v>
+        <v>4.389890074407909</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>5.280550289471421</v>
+        <v>5.396622323082303</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.98916227529933</v>
+        <v>47.99745098945343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.50681876721409</v>
+        <v>11.50835699249453</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.971986537477131</v>
+        <v>4.99169520428209</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.42438082982637</v>
+        <v>20.66621598848965</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.667573748712428</v>
+        <v>5.313107045240192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.601282758004842</v>
+        <v>6.462852420519103</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.49853621459791</v>
+        <v>10.88264667270635</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.996425383220281</v>
+        <v>10.10997296173858</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.44728250685417</v>
+        <v>21.54565882655921</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.373774109809317</v>
+        <v>6.971762066400385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8.852646991738682</v>
+        <v>8.768491892883834</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>11.99511996229294</v>
+        <v>12.60180594391464</v>
       </c>
     </row>
     <row r="19">
@@ -1390,28 +1390,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>3.103379550672056</v>
+        <v>3.055767556085648</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.143651270470188</v>
+        <v>3.223687961226406</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.797049890938346</v>
+        <v>2.796397131764974</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.85245979741893</v>
+        <v>3.854892780254243</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.045205584341794</v>
+        <v>2.897156466558543</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.446983498767562</v>
+        <v>3.357509460681415</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3.185257742353568</v>
+        <v>3.259591432768123</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>4.679780381900042</v>
+        <v>4.657708576621354</v>
       </c>
     </row>
     <row r="21">
@@ -1428,28 +1428,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>7.253702914944054</v>
+        <v>6.887948475835711</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>8.510388308721343</v>
+        <v>8.13796175725188</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.076688536800134</v>
+        <v>8.456484232920943</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>9.737849157401094</v>
+        <v>9.258942491409472</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>6.778182061089078</v>
+        <v>6.833842418163661</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8.250037884098674</v>
+        <v>8.044100232473401</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9.625033076416992</v>
+        <v>9.422652460277781</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>15.15659346817341</v>
+        <v>13.84441030209981</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>6.287282722088268</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>6.146831031434726</v>
+        <v>6.146831031434727</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>5.586353170244164</v>
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.89299966298296</v>
+        <v>5.139572512069681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.063993603897839</v>
+        <v>4.055432992212985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.533471897069924</v>
+        <v>5.568860939153818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.508443469150698</v>
+        <v>5.540522790050814</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.4725717315461</v>
+        <v>3.45497851759894</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.472040841686251</v>
+        <v>4.470541497295573</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.958348351847587</v>
+        <v>4.860206877520444</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.61682376855885</v>
+        <v>4.612259458017918</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.400961894915395</v>
+        <v>4.381933293559089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4.603107830476437</v>
+        <v>4.564397349359282</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5.667537661511813</v>
+        <v>5.771761373100526</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>5.505247046295717</v>
+        <v>5.539798590727254</v>
       </c>
     </row>
     <row r="24">
@@ -1552,40 +1552,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.43175847183978</v>
+        <v>12.65488297389323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.57447700555607</v>
+        <v>7.540923239571343</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.21244606393139</v>
+        <v>13.34155123036722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.514824287719</v>
+        <v>10.58868311399046</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.033241304464847</v>
+        <v>6.151652195921756</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.016745122395586</v>
+        <v>6.997508564011495</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.142741666847714</v>
+        <v>7.997831207279748</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.999742037058748</v>
+        <v>9.286835336516759</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.732130417852725</v>
+        <v>7.618825962286962</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.647671056948028</v>
+        <v>6.651410381990642</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9.92363622916168</v>
+        <v>9.915048830207882</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>8.892317980783938</v>
+        <v>8.874671510763747</v>
       </c>
     </row>
     <row r="25">
